--- a/results/LR/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/LR/125Hz_3classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -468,11 +468,11 @@
         <v>0.58</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'C': 0.44956526750431075, 'tol': 0.0016084867217637173}</t>
+          <t>{'C': 1.5097575247153672, 'tol': 0.020000638986158326}</t>
         </is>
       </c>
     </row>
@@ -486,14 +486,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
         <v>0.34</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'C': 0.07050242528867934, 'tol': 0.001465951337966517}</t>
+          <t>{'C': 0.2409801461933724, 'tol': 0.00022868047145667723}</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'C': 0.18570113140248365, 'tol': 2.2771062035601055e-06}</t>
+          <t>{'C': 0.20196488248158417, 'tol': 0.004033870638105179}</t>
         </is>
       </c>
     </row>
@@ -528,14 +528,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D5" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'C': 0.24587995765922693, 'tol': 3.885322042073585e-06}</t>
+          <t>{'C': 0.07177485598766581, 'tol': 0.008817702508879302}</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'C': 1.8643070776803672, 'tol': 0.0003922813143338876}</t>
+          <t>{'C': 0.22986571436954337, 'tol': 0.0027025924344861773}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'C': 0.5400556552139589, 'tol': 2.9840355637948494e-06}</t>
+          <t>{'C': 0.060791317216649536, 'tol': 6.576237308942149e-06}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'C': 0.00014714819741285342, 'tol': 1.9383427698611083e-05}</t>
+          <t>{'C': 0.0001469404736354169, 'tol': 1.117027338320087e-05}</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="D9" t="n">
         <v>0.72</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'C': 1.3088159554919778, 'tol': 0.0013269219798087537}</t>
+          <t>{'C': 2.1495294141204764, 'tol': 0.023768606124445164}</t>
         </is>
       </c>
     </row>
@@ -633,14 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 0.8254490821823498, 'tol': 0.01224524428465882}</t>
+          <t>{'C': 0.758643701191691, 'tol': 0.0014895338222879286}</t>
         </is>
       </c>
     </row>
@@ -654,14 +654,14 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="D11" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 1.1523985076683478, 'tol': 0.0014499288480107461}</t>
+          <t>{'C': 1.7067000633195057, 'tol': 0.16840809789155503}</t>
         </is>
       </c>
     </row>
@@ -675,14 +675,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'C': 1.0002546700291528, 'tol': 0.0001150757148628582}</t>
+          <t>{'C': 0.9524248669257438, 'tol': 2.435482894140647e-06}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'C': 7.106597169792146e-05, 'tol': 8.24701876578832e-06}</t>
+          <t>{'C': 7.348115199843909e-05, 'tol': 0.03761119832427125}</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'C': 0.017250967621815546, 'tol': 0.00010478660457374917}</t>
+          <t>{'C': 0.0004694251695533062, 'tol': 0.0018280629464776212}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'C': 0.3319727191945677, 'tol': 0.048786919710441884}</t>
+          <t>{'C': 0.11130387197570853, 'tol': 2.7944774044619794e-05}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'C': 1.1488596955490016, 'tol': 9.447231606049095e-06}</t>
+          <t>{'C': 1.7715441214124643, 'tol': 3.9442967885511416e-05}</t>
         </is>
       </c>
     </row>
